--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E7BE2-5BB1-F24A-8295-1AE96AFB8925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83384-F6C9-224F-BB51-F461EDD9B352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="960" windowWidth="51200" windowHeight="28340" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="10900" yWindow="4260" windowWidth="51200" windowHeight="28340" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +470,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -485,44 +485,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83384-F6C9-224F-BB51-F461EDD9B352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AE0D9-7DFB-2941-A5D1-CB7CDD87ED6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="4260" windowWidth="51200" windowHeight="28340" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
@@ -467,26 +464,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -495,9 +492,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,24 +507,21 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AE0D9-7DFB-2941-A5D1-CB7CDD87ED6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C27A8-4948-3945-962E-DCEE0F4F78D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
@@ -141,13 +141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,55 +467,55 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C27A8-4948-3945-962E-DCEE0F4F78D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816435E-39AE-F54B-9994-642B84A7C22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="11000" yWindow="4140" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,23 +135,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,64 +480,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="26">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816435E-39AE-F54B-9994-642B84A7C22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4018564-DC51-5447-ACEE-7C3E69D26489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11000" yWindow="4140" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,22 +135,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,9 +152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +471,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -508,7 +496,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">

--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4018564-DC51-5447-ACEE-7C3E69D26489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28AB8A6-4B1C-4E45-BDBB-CE5287D2058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11000" yWindow="4140" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>居住证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,24 +82,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -145,13 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,59 +473,59 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -531,7 +533,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/jzz.xlsx
+++ b/template/jzz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28AB8A6-4B1C-4E45-BDBB-CE5287D2058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B565F2-CDA2-48C9-819E-59587911413F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="4140" windowWidth="28800" windowHeight="17540" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="3405" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -53,9 +45,6 @@
     <t>处理日期</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>居住证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +54,10 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,23 +130,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,60 +509,60 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -535,5 +571,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>